--- a/medicine/Pharmacie/Zanubrutinib/Zanubrutinib.xlsx
+++ b/medicine/Pharmacie/Zanubrutinib/Zanubrutinib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le zanubrutinib est un médicament utilisé dans certains lymphomes et dans la maladie de Waldenström.
 </t>
@@ -511,7 +523,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un inhibiteur de la tyrosine kinase de Bruton.
 </t>
@@ -542,10 +556,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la maladie de Waldenström, l'efficacité du zanubrutinib est comparable à celle de l'ibrutinib, avec moins d'effets secondaires[1].
-Dans la leucémie lymphoïde chronique récidivante ou réfractaire, le zanubrutinib est plus efficace que l'ibrutinib (un autre inhibiteur de la tyrosine kinase de Bruton) en termes de taux de réponse, durée de rémission, avec moins d'effets secondaires cardiaques[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la maladie de Waldenström, l'efficacité du zanubrutinib est comparable à celle de l'ibrutinib, avec moins d'effets secondaires.
+Dans la leucémie lymphoïde chronique récidivante ou réfractaire, le zanubrutinib est plus efficace que l'ibrutinib (un autre inhibiteur de la tyrosine kinase de Bruton) en termes de taux de réponse, durée de rémission, avec moins d'effets secondaires cardiaques.
 </t>
         </is>
       </c>
